--- a/WidthDepth/DepthWidth_Station04_2022-06-10_1030.xlsx
+++ b/WidthDepth/DepthWidth_Station04_2022-06-10_1030.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Metabolism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/WidthDepth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD76D46-F870-3C4A-ACD0-F25D789E3823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{1DD76D46-F870-3C4A-ACD0-F25D789E3823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBAA61E9-9C29-4667-A550-7A4834662C36}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{7089D09E-C001-534A-A65B-BE1DB4C6FB39}"/>
+    <workbookView xWindow="5030" yWindow="150" windowWidth="14070" windowHeight="9730" xr2:uid="{7089D09E-C001-534A-A65B-BE1DB4C6FB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">Time </t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>depth (cm)</t>
+  </si>
+  <si>
+    <t>Average depth</t>
+  </si>
+  <si>
+    <t>Thalwag depth</t>
   </si>
 </sst>
 </file>
@@ -412,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE13470F-A8B9-D04B-B583-401D9BB2FAF0}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +437,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -440,13 +447,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,8 +466,20 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -473,8 +492,24 @@
       <c r="D5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>B5</f>
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I5">
+        <f>D7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -485,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -496,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -507,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -518,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -531,8 +566,24 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f>A10</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>B10</f>
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(D10:D15)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="I10">
+        <f>D12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -543,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -554,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -565,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -576,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -587,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -600,8 +651,24 @@
       <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f>A16</f>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f>B16</f>
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(D16:D20)</f>
+        <v>5.4</v>
+      </c>
+      <c r="I16">
+        <f>D18</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -612,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -623,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -634,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -645,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -658,8 +725,24 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>A21</f>
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <f>B21</f>
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(D21:D25)</f>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f>D23</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -670,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -681,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -692,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -703,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -716,8 +799,24 @@
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f>A26</f>
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <f>B26</f>
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(D26:D30)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I26">
+        <f>D28</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -728,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -739,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -750,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -761,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
@@ -774,8 +873,24 @@
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f>A31</f>
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <f>B31</f>
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(D31:D35)</f>
+        <v>5.6</v>
+      </c>
+      <c r="I31">
+        <f>D33</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -786,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>10</v>
       </c>
@@ -797,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -808,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10</v>
       </c>
@@ -819,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>12</v>
       </c>
@@ -832,8 +947,24 @@
       <c r="D36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f>A36</f>
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <f>B36</f>
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <f>AVERAGE(D36:D40)</f>
+        <v>8.6</v>
+      </c>
+      <c r="I36">
+        <f>D38</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
@@ -844,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>12</v>
       </c>
@@ -855,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>12</v>
       </c>
@@ -866,7 +997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>12</v>
       </c>
@@ -877,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>14</v>
       </c>
@@ -890,8 +1021,24 @@
       <c r="D41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>A41</f>
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <f>B41</f>
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(D41:D45)</f>
+        <v>6.8</v>
+      </c>
+      <c r="I41">
+        <f>D43</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>14</v>
       </c>
@@ -902,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>14</v>
       </c>
@@ -913,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>14</v>
       </c>
@@ -924,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>14</v>
       </c>
@@ -935,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16</v>
       </c>
@@ -948,8 +1095,24 @@
       <c r="D46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>A46</f>
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <f>B46</f>
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <f>AVERAGE(D46:D50)</f>
+        <v>4.2</v>
+      </c>
+      <c r="I46">
+        <f>D48</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16</v>
       </c>
@@ -960,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16</v>
       </c>
@@ -971,7 +1134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16</v>
       </c>
@@ -982,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>16</v>
       </c>
